--- a/data/processed/output_table.xlsx
+++ b/data/processed/output_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://musigma-my.sharepoint.com/personal/vignesh_nehru_mu-sigma_com/Documents/Documents/walmart/re_greco/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A0ED812D67181158029C26D2F87AC3C111D9AAB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089AD184-F064-40D1-9A7C-3F1642CE0986}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_A0ED812D67181158029C26D2F87AC3C111D9AAB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C2F13C-E406-4B3B-BE2D-F1904C3182B1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -128,15 +126,65 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -147,6 +195,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48B227CF-6754-4010-9421-4E24EDD211CE}" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:F36" xr:uid="{48B227CF-6754-4010-9421-4E24EDD211CE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{51522F64-9BF4-46D6-BF0C-443EC47FB566}" name="entrp_ptnt_id"/>
+    <tableColumn id="2" xr3:uid="{2AA62FE7-B2CB-4628-9E8B-4DAC89205B6C}" name="eff_dt" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2671DB21-BBAF-438F-954D-DE30283F9CB5}" name="status"/>
+    <tableColumn id="4" xr3:uid="{09C451C3-0BE3-400C-98F2-5AC13EF88E2A}" name="recent_status"/>
+    <tableColumn id="5" xr3:uid="{B2C37027-F1C1-4351-901C-B916A31CEBF0}" name="transition_dt" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E96FDE58-C620-4CEB-8948-C2444B1A6FA5}" name="prev_store_nbr"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,35 +501,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="18.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -488,7 +553,7 @@
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>43831</v>
       </c>
       <c r="C3" t="s">
@@ -497,7 +562,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>43831</v>
       </c>
     </row>
@@ -505,7 +570,7 @@
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>43941</v>
       </c>
       <c r="C4" t="s">
@@ -514,7 +579,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>43941</v>
       </c>
       <c r="F4">
@@ -525,7 +590,7 @@
       <c r="A5">
         <v>1001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>43942</v>
       </c>
       <c r="C5" t="s">
@@ -545,7 +610,7 @@
       <c r="A6">
         <v>1001</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>44196</v>
       </c>
       <c r="C6" t="s">
@@ -554,7 +619,7 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>44196</v>
       </c>
       <c r="F6">
@@ -565,7 +630,7 @@
       <c r="A7">
         <v>1001</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>44197</v>
       </c>
       <c r="C7" t="s">
@@ -574,7 +639,7 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>44197</v>
       </c>
       <c r="F7">
@@ -585,7 +650,7 @@
       <c r="A8">
         <v>1001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>44926</v>
       </c>
       <c r="C8" t="s">
@@ -594,7 +659,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>44926</v>
       </c>
       <c r="F8">
@@ -605,7 +670,7 @@
       <c r="A9">
         <v>1001</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>44927</v>
       </c>
       <c r="C9" t="s">
@@ -614,7 +679,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>44927</v>
       </c>
       <c r="F9">
@@ -639,7 +704,7 @@
       <c r="A11">
         <v>1002</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>43252</v>
       </c>
       <c r="C11" t="s">
@@ -648,7 +713,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>43252</v>
       </c>
     </row>
@@ -656,7 +721,7 @@
       <c r="A12">
         <v>1002</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>43652</v>
       </c>
       <c r="C12" t="s">
@@ -665,7 +730,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>43652</v>
       </c>
       <c r="F12">
@@ -676,7 +741,7 @@
       <c r="A13">
         <v>1002</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>43702</v>
       </c>
       <c r="C13" t="s">
@@ -685,7 +750,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>43702</v>
       </c>
       <c r="F13">
@@ -696,7 +761,7 @@
       <c r="A14">
         <v>1002</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>43902</v>
       </c>
       <c r="C14" t="s">
@@ -705,7 +770,7 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>43902</v>
       </c>
       <c r="F14">
@@ -716,7 +781,7 @@
       <c r="A15">
         <v>1002</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>44102</v>
       </c>
       <c r="C15" t="s">
@@ -750,7 +815,7 @@
       <c r="A17">
         <v>1003</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>44630</v>
       </c>
       <c r="C17" t="s">
@@ -759,7 +824,7 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>44630</v>
       </c>
     </row>
@@ -767,7 +832,7 @@
       <c r="A18">
         <v>1003</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>44666</v>
       </c>
       <c r="C18" t="s">
@@ -787,7 +852,7 @@
       <c r="A19">
         <v>1003</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>44780</v>
       </c>
       <c r="C19" t="s">
@@ -796,7 +861,7 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>44780</v>
       </c>
       <c r="F19">
@@ -821,7 +886,7 @@
       <c r="A21">
         <v>1004</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>42370</v>
       </c>
       <c r="C21" t="s">
@@ -830,7 +895,7 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>42370</v>
       </c>
     </row>
@@ -838,7 +903,7 @@
       <c r="A22">
         <v>1004</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>45337</v>
       </c>
       <c r="C22" t="s">
@@ -872,7 +937,7 @@
       <c r="A24">
         <v>1005</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>44927</v>
       </c>
       <c r="C24" t="s">
@@ -881,7 +946,7 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>44927</v>
       </c>
     </row>
@@ -889,7 +954,7 @@
       <c r="A25">
         <v>1005</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>44957</v>
       </c>
       <c r="C25" t="s">
@@ -898,7 +963,7 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>44957</v>
       </c>
       <c r="F25">
@@ -909,7 +974,7 @@
       <c r="A26">
         <v>1005</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>45077</v>
       </c>
       <c r="C26" t="s">
@@ -943,7 +1008,7 @@
       <c r="A28">
         <v>1006</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>45261</v>
       </c>
       <c r="C28" t="s">
@@ -952,7 +1017,7 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>45261</v>
       </c>
     </row>
@@ -974,7 +1039,7 @@
       <c r="A30">
         <v>1007</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>43590</v>
       </c>
       <c r="C30" t="s">
@@ -983,7 +1048,7 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>43590</v>
       </c>
     </row>
@@ -991,7 +1056,7 @@
       <c r="A31">
         <v>1007</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>43700</v>
       </c>
       <c r="C31" t="s">
@@ -1000,7 +1065,7 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>43700</v>
       </c>
       <c r="F31">
@@ -1011,7 +1076,7 @@
       <c r="A32">
         <v>1007</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>43955</v>
       </c>
       <c r="C32" t="s">
@@ -1020,7 +1085,7 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>43955</v>
       </c>
       <c r="F32">
@@ -1031,7 +1096,7 @@
       <c r="A33">
         <v>1007</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>44685</v>
       </c>
       <c r="C33" t="s">
@@ -1040,7 +1105,7 @@
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>44685</v>
       </c>
       <c r="F33">
@@ -1065,7 +1130,7 @@
       <c r="A35">
         <v>1008</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>44378</v>
       </c>
       <c r="C35" t="s">
@@ -1074,7 +1139,7 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>44378</v>
       </c>
     </row>
@@ -1082,7 +1147,7 @@
       <c r="A36">
         <v>1008</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>44418</v>
       </c>
       <c r="C36" t="s">
@@ -1100,5 +1165,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>